--- a/Data/Comparisons2.xlsx
+++ b/Data/Comparisons2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28D6222-274D-4CDD-A2F5-19BE87A0D88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E699A86-2156-4A85-8F9C-943F47421C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Comparisons2.xlsx
+++ b/Data/Comparisons2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E699A86-2156-4A85-8F9C-943F47421C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95DC24E-81A3-4C9A-BD47-B967CC6C3F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Active Cases 12-11</t>
   </si>
@@ -892,6 +892,12 @@
   </si>
   <si>
     <t>Dates</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>San Patricio</t>
   </si>
 </sst>
 </file>
@@ -1238,12 +1244,13 @@
   <dimension ref="A1:KA287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:287" x14ac:dyDescent="0.3">
@@ -1256,8 +1263,12 @@
       <c r="C1" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" t="s">
+        <v>290</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1551,6 +1562,12 @@
       <c r="C2">
         <v>355</v>
       </c>
+      <c r="D2">
+        <v>230</v>
+      </c>
+      <c r="E2">
+        <v>121</v>
+      </c>
     </row>
     <row r="3" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1562,6 +1579,12 @@
       <c r="C3">
         <v>351</v>
       </c>
+      <c r="D3">
+        <v>169</v>
+      </c>
+      <c r="E3">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1573,6 +1596,12 @@
       <c r="C4">
         <v>259</v>
       </c>
+      <c r="D4">
+        <v>199</v>
+      </c>
+      <c r="E4">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1584,6 +1613,12 @@
       <c r="C5">
         <v>259</v>
       </c>
+      <c r="D5">
+        <v>241</v>
+      </c>
+      <c r="E5">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1595,6 +1630,12 @@
       <c r="C6">
         <v>230</v>
       </c>
+      <c r="D6">
+        <v>153</v>
+      </c>
+      <c r="E6">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1606,6 +1647,12 @@
       <c r="C7">
         <v>214</v>
       </c>
+      <c r="D7">
+        <v>192</v>
+      </c>
+      <c r="E7">
+        <v>126</v>
+      </c>
     </row>
     <row r="8" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1617,6 +1664,12 @@
       <c r="C8">
         <v>217</v>
       </c>
+      <c r="D8">
+        <v>181</v>
+      </c>
+      <c r="E8">
+        <v>126</v>
+      </c>
     </row>
     <row r="9" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1628,6 +1681,12 @@
       <c r="C9">
         <v>196</v>
       </c>
+      <c r="D9">
+        <v>202</v>
+      </c>
+      <c r="E9">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1639,6 +1698,12 @@
       <c r="C10">
         <v>159</v>
       </c>
+      <c r="D10">
+        <v>235</v>
+      </c>
+      <c r="E10">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1650,6 +1715,12 @@
       <c r="C11">
         <v>155</v>
       </c>
+      <c r="D11">
+        <v>253</v>
+      </c>
+      <c r="E11">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1661,6 +1732,12 @@
       <c r="C12">
         <v>149</v>
       </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1672,6 +1749,12 @@
       <c r="C13">
         <v>126</v>
       </c>
+      <c r="D13">
+        <v>305</v>
+      </c>
+      <c r="E13">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1683,6 +1766,12 @@
       <c r="C14">
         <v>143</v>
       </c>
+      <c r="D14">
+        <v>383</v>
+      </c>
+      <c r="E14">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1694,6 +1783,12 @@
       <c r="C15">
         <v>142</v>
       </c>
+      <c r="D15">
+        <v>335</v>
+      </c>
+      <c r="E15">
+        <v>175</v>
+      </c>
     </row>
     <row r="16" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1705,8 +1800,14 @@
       <c r="C16">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>347</v>
+      </c>
+      <c r="E16">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1716,8 +1817,14 @@
       <c r="C17">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>388</v>
+      </c>
+      <c r="E17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1727,8 +1834,14 @@
       <c r="C18">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>424</v>
+      </c>
+      <c r="E18">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,8 +1851,14 @@
       <c r="C19">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>442</v>
+      </c>
+      <c r="E19">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1749,8 +1868,14 @@
       <c r="C20">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>330</v>
+      </c>
+      <c r="E20">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1760,8 +1885,14 @@
       <c r="C21">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>506</v>
+      </c>
+      <c r="E21">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1771,8 +1902,14 @@
       <c r="C22">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>485</v>
+      </c>
+      <c r="E22">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1782,8 +1919,14 @@
       <c r="C23">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>472</v>
+      </c>
+      <c r="E23">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1793,8 +1936,14 @@
       <c r="C24">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>508</v>
+      </c>
+      <c r="E24">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1804,8 +1953,14 @@
       <c r="C25">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>545</v>
+      </c>
+      <c r="E25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1815,8 +1970,14 @@
       <c r="C26">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>609</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1826,8 +1987,14 @@
       <c r="C27">
         <v>92.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>544</v>
+      </c>
+      <c r="E27">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1837,8 +2004,14 @@
       <c r="C28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>556</v>
+      </c>
+      <c r="E28">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1848,8 +2021,14 @@
       <c r="C29">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>565</v>
+      </c>
+      <c r="E29">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1859,8 +2038,14 @@
       <c r="C30">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>565</v>
+      </c>
+      <c r="E30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1870,8 +2055,14 @@
       <c r="C31">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>461</v>
+      </c>
+      <c r="E31">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1881,8 +2072,14 @@
       <c r="C32">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>489</v>
+      </c>
+      <c r="E32">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1892,8 +2089,14 @@
       <c r="C33">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>543</v>
+      </c>
+      <c r="E33">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1903,8 +2106,14 @@
       <c r="C34">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>509</v>
+      </c>
+      <c r="E34">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1914,8 +2123,14 @@
       <c r="C35">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>561</v>
+      </c>
+      <c r="E35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1925,8 +2140,14 @@
       <c r="C36">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>474</v>
+      </c>
+      <c r="E36">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1936,8 +2157,14 @@
       <c r="C37">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>471</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1947,8 +2174,14 @@
       <c r="C38">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>481</v>
+      </c>
+      <c r="E38">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1958,8 +2191,14 @@
       <c r="C39">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>510</v>
+      </c>
+      <c r="E39">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1969,8 +2208,14 @@
       <c r="C40">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>560</v>
+      </c>
+      <c r="E40">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1980,8 +2225,14 @@
       <c r="C41">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>618</v>
+      </c>
+      <c r="E41">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1991,8 +2242,14 @@
       <c r="C42">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>719</v>
+      </c>
+      <c r="E42">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2002,8 +2259,14 @@
       <c r="C43">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>918</v>
+      </c>
+      <c r="E43">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -2013,8 +2276,14 @@
       <c r="C44">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>878</v>
+      </c>
+      <c r="E44">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -2024,8 +2293,14 @@
       <c r="C45">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>839</v>
+      </c>
+      <c r="E45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -2035,8 +2310,14 @@
       <c r="C46">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>889</v>
+      </c>
+      <c r="E46">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -2046,8 +2327,14 @@
       <c r="C47">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>890</v>
+      </c>
+      <c r="E47">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2057,8 +2344,14 @@
       <c r="C48">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>766</v>
+      </c>
+      <c r="E48">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2068,8 +2361,14 @@
       <c r="C49">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>730</v>
+      </c>
+      <c r="E49">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2378,14 @@
       <c r="C50">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>716</v>
+      </c>
+      <c r="E50">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2090,8 +2395,14 @@
       <c r="C51">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>690</v>
+      </c>
+      <c r="E51">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -2101,8 +2412,14 @@
       <c r="C52">
         <v>119</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>527</v>
+      </c>
+      <c r="E52">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -2112,8 +2429,14 @@
       <c r="C53">
         <v>113</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>574</v>
+      </c>
+      <c r="E53">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -2123,8 +2446,14 @@
       <c r="C54">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>535</v>
+      </c>
+      <c r="E54">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -2134,8 +2463,14 @@
       <c r="C55">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>410</v>
+      </c>
+      <c r="E55">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -2145,8 +2480,14 @@
       <c r="C56">
         <v>99</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>419</v>
+      </c>
+      <c r="E56">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -2156,8 +2497,14 @@
       <c r="C57">
         <v>93</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>497</v>
+      </c>
+      <c r="E57">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2514,14 @@
       <c r="C58">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>544</v>
+      </c>
+      <c r="E58">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
@@ -2178,8 +2531,14 @@
       <c r="C59">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>574</v>
+      </c>
+      <c r="E59">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -2189,8 +2548,14 @@
       <c r="C60">
         <v>89</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>612</v>
+      </c>
+      <c r="E60">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -2200,8 +2565,14 @@
       <c r="C61">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>520</v>
+      </c>
+      <c r="E61">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
@@ -2211,8 +2582,14 @@
       <c r="C62">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>536</v>
+      </c>
+      <c r="E62">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
@@ -2222,8 +2599,14 @@
       <c r="C63">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>532</v>
+      </c>
+      <c r="E63">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
@@ -2233,8 +2616,14 @@
       <c r="C64">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>473</v>
+      </c>
+      <c r="E64">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -2244,8 +2633,14 @@
       <c r="C65">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>445</v>
+      </c>
+      <c r="E65">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -2255,8 +2650,14 @@
       <c r="C66">
         <v>77</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>461</v>
+      </c>
+      <c r="E66">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -2266,8 +2667,14 @@
       <c r="C67">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>492</v>
+      </c>
+      <c r="E67">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -2277,8 +2684,14 @@
       <c r="C68">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>517</v>
+      </c>
+      <c r="E68">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -2288,8 +2701,14 @@
       <c r="C69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>403</v>
+      </c>
+      <c r="E69">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -2299,8 +2718,14 @@
       <c r="C70">
         <v>165</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>389</v>
+      </c>
+      <c r="E70">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -2310,8 +2735,14 @@
       <c r="C71">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>426</v>
+      </c>
+      <c r="E71">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -2321,8 +2752,14 @@
       <c r="C72">
         <v>56</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>358</v>
+      </c>
+      <c r="E72">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -2332,8 +2769,14 @@
       <c r="C73">
         <v>55</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>368</v>
+      </c>
+      <c r="E73">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2343,8 +2786,14 @@
       <c r="C74">
         <v>55</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>368</v>
+      </c>
+      <c r="E74">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -2354,8 +2803,14 @@
       <c r="C75">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>299</v>
+      </c>
+      <c r="E75">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -2365,8 +2820,14 @@
       <c r="C76">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>281</v>
+      </c>
+      <c r="E76">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2376,8 +2837,14 @@
       <c r="C77">
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>152</v>
+      </c>
+      <c r="E77">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -2387,8 +2854,14 @@
       <c r="C78">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>145</v>
+      </c>
+      <c r="E78">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -2398,8 +2871,14 @@
       <c r="C79">
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>86</v>
+      </c>
+      <c r="E79">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -2409,8 +2888,14 @@
       <c r="C80">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>113</v>
+      </c>
+      <c r="E80">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -2420,8 +2905,14 @@
       <c r="C81">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>122</v>
+      </c>
+      <c r="E81">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -2431,8 +2922,14 @@
       <c r="C82">
         <v>58</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>90</v>
+      </c>
+      <c r="E82">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -2442,8 +2939,14 @@
       <c r="C83">
         <v>57</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -2453,8 +2956,14 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>87</v>
+      </c>
+      <c r="E84">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -2464,8 +2973,14 @@
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>91</v>
+      </c>
+      <c r="E85">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -2475,8 +2990,14 @@
       <c r="C86">
         <v>46</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -2486,8 +3007,14 @@
       <c r="C87">
         <v>53</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>91</v>
+      </c>
+      <c r="E87">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -2497,8 +3024,14 @@
       <c r="C88">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>96</v>
+      </c>
+      <c r="E88">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -2508,8 +3041,14 @@
       <c r="C89">
         <v>46</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>72</v>
+      </c>
+      <c r="E89">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -2519,8 +3058,14 @@
       <c r="C90">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>47</v>
+      </c>
+      <c r="E90">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -2530,8 +3075,14 @@
       <c r="C91">
         <v>47</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>44</v>
+      </c>
+      <c r="E91">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -2541,8 +3092,14 @@
       <c r="C92">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>49</v>
+      </c>
+      <c r="E92">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -2552,8 +3109,14 @@
       <c r="C93">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>48</v>
+      </c>
+      <c r="E93">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -2563,8 +3126,14 @@
       <c r="C94">
         <v>41</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>55</v>
+      </c>
+      <c r="E94">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -2574,8 +3143,14 @@
       <c r="C95">
         <v>41</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>63</v>
+      </c>
+      <c r="E95">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -2585,8 +3160,14 @@
       <c r="C96">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>57</v>
+      </c>
+      <c r="E96">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -2596,8 +3177,14 @@
       <c r="C97">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>45</v>
+      </c>
+      <c r="E97">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -2607,8 +3194,14 @@
       <c r="C98">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>35</v>
+      </c>
+      <c r="E98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -2618,8 +3211,14 @@
       <c r="C99">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>41</v>
+      </c>
+      <c r="E99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -2629,8 +3228,14 @@
       <c r="C100">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>44</v>
+      </c>
+      <c r="E100">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -2640,8 +3245,14 @@
       <c r="C101">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>60</v>
+      </c>
+      <c r="E101">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
@@ -2651,8 +3262,14 @@
       <c r="C102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>66</v>
+      </c>
+      <c r="E102">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -2662,8 +3279,14 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>30</v>
+      </c>
+      <c r="E103">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
@@ -2673,8 +3296,14 @@
       <c r="C104">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>32</v>
+      </c>
+      <c r="E104">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -2684,8 +3313,14 @@
       <c r="C105">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>36</v>
+      </c>
+      <c r="E105">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
@@ -2695,8 +3330,14 @@
       <c r="C106">
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>45</v>
+      </c>
+      <c r="E106">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
@@ -2706,8 +3347,14 @@
       <c r="C107">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>61</v>
+      </c>
+      <c r="E107">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -2717,8 +3364,14 @@
       <c r="C108">
         <v>18</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>68</v>
+      </c>
+      <c r="E108">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -2728,8 +3381,14 @@
       <c r="C109">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>101</v>
+      </c>
+      <c r="E109">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -2739,8 +3398,14 @@
       <c r="C110">
         <v>19</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>104</v>
+      </c>
+      <c r="E110">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -2750,8 +3415,14 @@
       <c r="C111">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>97</v>
+      </c>
+      <c r="E111">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -2761,8 +3432,14 @@
       <c r="C112">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>97</v>
+      </c>
+      <c r="E112">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -2772,8 +3449,14 @@
       <c r="C113">
         <v>28</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>101</v>
+      </c>
+      <c r="E113">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
@@ -2783,8 +3466,14 @@
       <c r="C114">
         <v>26</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>102</v>
+      </c>
+      <c r="E114">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
@@ -2794,8 +3483,14 @@
       <c r="C115">
         <v>25</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>107</v>
+      </c>
+      <c r="E115">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -2805,8 +3500,14 @@
       <c r="C116">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>122</v>
+      </c>
+      <c r="E116">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -2816,8 +3517,14 @@
       <c r="C117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>83</v>
+      </c>
+      <c r="E117">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -2827,8 +3534,14 @@
       <c r="C118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>88</v>
+      </c>
+      <c r="E118">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -2838,8 +3551,14 @@
       <c r="C119">
         <v>52</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>59</v>
+      </c>
+      <c r="E119">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
@@ -2849,8 +3568,14 @@
       <c r="C120">
         <v>46</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>62</v>
+      </c>
+      <c r="E120">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -2860,8 +3585,14 @@
       <c r="C121">
         <v>54</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>56</v>
+      </c>
+      <c r="E121">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
@@ -2871,8 +3602,14 @@
       <c r="C122">
         <v>54</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>69</v>
+      </c>
+      <c r="E122">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -2882,8 +3619,14 @@
       <c r="C123">
         <v>53</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>78</v>
+      </c>
+      <c r="E123">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -2893,8 +3636,14 @@
       <c r="C124">
         <v>59</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>52</v>
+      </c>
+      <c r="E124">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -2904,8 +3653,14 @@
       <c r="C125">
         <v>50</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>61</v>
+      </c>
+      <c r="E125">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -2915,8 +3670,14 @@
       <c r="C126">
         <v>42</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>58</v>
+      </c>
+      <c r="E126">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -2926,8 +3687,14 @@
       <c r="C127">
         <v>54</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>54</v>
+      </c>
+      <c r="E127">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -2937,8 +3704,14 @@
       <c r="C128">
         <v>53</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <v>38</v>
+      </c>
+      <c r="E128">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -2948,8 +3721,14 @@
       <c r="C129">
         <v>53</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>39</v>
+      </c>
+      <c r="E129">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -2959,8 +3738,14 @@
       <c r="C130">
         <v>54</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>52</v>
+      </c>
+      <c r="E130">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -2970,8 +3755,14 @@
       <c r="C131">
         <v>60</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>33</v>
+      </c>
+      <c r="E131">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -2981,8 +3772,14 @@
       <c r="C132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132">
+        <v>40</v>
+      </c>
+      <c r="E132">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -2992,8 +3789,14 @@
       <c r="C133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133">
+        <v>52</v>
+      </c>
+      <c r="E133">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -3003,8 +3806,14 @@
       <c r="C134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>48</v>
+      </c>
+      <c r="E134">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -3014,8 +3823,14 @@
       <c r="C135">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>33</v>
+      </c>
+      <c r="E135">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -3025,8 +3840,14 @@
       <c r="C136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <v>49</v>
+      </c>
+      <c r="E136">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -3036,8 +3857,14 @@
       <c r="C137">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <v>56</v>
+      </c>
+      <c r="E137">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -3047,8 +3874,14 @@
       <c r="C138">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138">
+        <v>58</v>
+      </c>
+      <c r="E138">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -3058,8 +3891,14 @@
       <c r="C139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139">
+        <v>61</v>
+      </c>
+      <c r="E139">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -3069,8 +3908,14 @@
       <c r="C140">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140">
+        <v>59</v>
+      </c>
+      <c r="E140">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -3080,8 +3925,14 @@
       <c r="C141">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141">
+        <v>64</v>
+      </c>
+      <c r="E141">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
@@ -3091,8 +3942,14 @@
       <c r="C142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <v>60</v>
+      </c>
+      <c r="E142">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -3102,8 +3959,14 @@
       <c r="C143">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143">
+        <v>60</v>
+      </c>
+      <c r="E143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
@@ -3113,8 +3976,14 @@
       <c r="C144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <v>66</v>
+      </c>
+      <c r="E144">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
@@ -3124,8 +3993,14 @@
       <c r="C145">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <v>58</v>
+      </c>
+      <c r="E145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
@@ -3135,8 +4010,14 @@
       <c r="C146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146">
+        <v>46</v>
+      </c>
+      <c r="E146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -3146,8 +4027,14 @@
       <c r="C147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147">
+        <v>39</v>
+      </c>
+      <c r="E147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -3157,8 +4044,14 @@
       <c r="C148">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148">
+        <v>24</v>
+      </c>
+      <c r="E148">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -3168,8 +4061,14 @@
       <c r="C149">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149">
+        <v>22</v>
+      </c>
+      <c r="E149">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -3179,8 +4078,14 @@
       <c r="C150">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150">
+        <v>32</v>
+      </c>
+      <c r="E150">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -3190,8 +4095,14 @@
       <c r="C151">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <v>37</v>
+      </c>
+      <c r="E151">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -3201,8 +4112,14 @@
       <c r="C152">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>33</v>
+      </c>
+      <c r="E152">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -3212,8 +4129,14 @@
       <c r="C153">
         <v>9</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -3223,8 +4146,14 @@
       <c r="C154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -3234,8 +4163,14 @@
       <c r="C155">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -3245,8 +4180,14 @@
       <c r="C156">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -3256,8 +4197,14 @@
       <c r="C157">
         <v>9</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -3267,8 +4214,14 @@
       <c r="C158">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -3278,8 +4231,14 @@
       <c r="C159">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -3289,8 +4248,14 @@
       <c r="C160">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -3300,8 +4265,14 @@
       <c r="C161">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -3311,8 +4282,14 @@
       <c r="C162">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -3322,8 +4299,14 @@
       <c r="C163">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -3333,8 +4316,14 @@
       <c r="C164">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -3344,8 +4333,14 @@
       <c r="C165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -3355,8 +4350,14 @@
       <c r="C166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -3366,8 +4367,14 @@
       <c r="C167">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -3377,8 +4384,14 @@
       <c r="C168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -3388,8 +4401,14 @@
       <c r="C169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -3399,8 +4418,14 @@
       <c r="C170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -3410,8 +4435,14 @@
       <c r="C171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -3421,8 +4452,14 @@
       <c r="C172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -3432,8 +4469,14 @@
       <c r="C173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -3443,8 +4486,14 @@
       <c r="C174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -3454,8 +4503,14 @@
       <c r="C175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -3465,8 +4520,14 @@
       <c r="C176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -3476,8 +4537,14 @@
       <c r="C177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
@@ -3487,8 +4554,14 @@
       <c r="C178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>177</v>
       </c>
@@ -3498,8 +4571,14 @@
       <c r="C179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>178</v>
       </c>
@@ -3509,8 +4588,14 @@
       <c r="C180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
@@ -3520,8 +4605,14 @@
       <c r="C181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
@@ -3531,8 +4622,14 @@
       <c r="C182">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -3542,8 +4639,14 @@
       <c r="C183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -3553,8 +4656,14 @@
       <c r="C184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -3564,8 +4673,14 @@
       <c r="C185">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -3575,8 +4690,14 @@
       <c r="C186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -3586,8 +4707,14 @@
       <c r="C187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -3597,8 +4724,14 @@
       <c r="C188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -3608,8 +4741,14 @@
       <c r="C189">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -3619,8 +4758,14 @@
       <c r="C190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -3630,8 +4775,14 @@
       <c r="C191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -3641,8 +4792,14 @@
       <c r="C192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -3652,8 +4809,14 @@
       <c r="C193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -3663,8 +4826,14 @@
       <c r="C194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -3674,8 +4843,14 @@
       <c r="C195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -3685,8 +4860,14 @@
       <c r="C196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -3696,8 +4877,14 @@
       <c r="C197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -3707,8 +4894,14 @@
       <c r="C198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -3718,8 +4911,14 @@
       <c r="C199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -3729,8 +4928,14 @@
       <c r="C200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -3740,8 +4945,14 @@
       <c r="C201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -3751,8 +4962,14 @@
       <c r="C202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -3762,8 +4979,14 @@
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -3773,8 +4996,14 @@
       <c r="C204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -3784,8 +5013,14 @@
       <c r="C205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -3795,8 +5030,14 @@
       <c r="C206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -3806,8 +5047,14 @@
       <c r="C207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -3817,8 +5064,14 @@
       <c r="C208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
@@ -3828,8 +5081,14 @@
       <c r="C209">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
@@ -3839,8 +5098,14 @@
       <c r="C210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
@@ -3850,8 +5115,14 @@
       <c r="C211">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
@@ -3861,8 +5132,14 @@
       <c r="C212">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
@@ -3872,8 +5149,14 @@
       <c r="C213">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
@@ -3883,8 +5166,14 @@
       <c r="C214">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -3894,8 +5183,14 @@
       <c r="C215">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -3905,8 +5200,14 @@
       <c r="C216">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
@@ -3916,8 +5217,14 @@
       <c r="C217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
@@ -3927,8 +5234,14 @@
       <c r="C218">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
@@ -3938,8 +5251,14 @@
       <c r="C219">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>25</v>
+      </c>
+      <c r="E219">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>218</v>
       </c>
@@ -3949,8 +5268,14 @@
       <c r="C220">
         <v>10</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>30</v>
+      </c>
+      <c r="E220">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
@@ -3960,8 +5285,14 @@
       <c r="C221">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>35</v>
+      </c>
+      <c r="E221">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -3971,8 +5302,14 @@
       <c r="C222">
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>35</v>
+      </c>
+      <c r="E222">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
@@ -3982,8 +5319,14 @@
       <c r="C223">
         <v>11</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>28</v>
+      </c>
+      <c r="E223">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
@@ -3993,8 +5336,14 @@
       <c r="C224">
         <v>9</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>27</v>
+      </c>
+      <c r="E224">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -4004,8 +5353,14 @@
       <c r="C225">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>36</v>
+      </c>
+      <c r="E225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
@@ -4015,8 +5370,14 @@
       <c r="C226">
         <v>13</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>36</v>
+      </c>
+      <c r="E226">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -4026,8 +5387,14 @@
       <c r="C227">
         <v>13</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>45</v>
+      </c>
+      <c r="E227">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -4037,8 +5404,14 @@
       <c r="C228">
         <v>13</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>50</v>
+      </c>
+      <c r="E228">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -4048,8 +5421,14 @@
       <c r="C229">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>61</v>
+      </c>
+      <c r="E229">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -4059,8 +5438,14 @@
       <c r="C230">
         <v>14</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>61</v>
+      </c>
+      <c r="E230">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -4070,8 +5455,14 @@
       <c r="C231">
         <v>11</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>74</v>
+      </c>
+      <c r="E231">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
@@ -4081,8 +5472,14 @@
       <c r="C232">
         <v>16</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>87</v>
+      </c>
+      <c r="E232">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -4092,8 +5489,14 @@
       <c r="C233">
         <v>16</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>103</v>
+      </c>
+      <c r="E233">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -4103,8 +5506,14 @@
       <c r="C234">
         <v>17</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>114</v>
+      </c>
+      <c r="E234">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -4114,8 +5523,14 @@
       <c r="C235">
         <v>17</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>133</v>
+      </c>
+      <c r="E235">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -4125,8 +5540,14 @@
       <c r="C236">
         <v>17</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>148</v>
+      </c>
+      <c r="E236">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -4136,8 +5557,14 @@
       <c r="C237">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>137</v>
+      </c>
+      <c r="E237">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -4147,8 +5574,14 @@
       <c r="C238">
         <v>23</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>143</v>
+      </c>
+      <c r="E238">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -4158,8 +5591,14 @@
       <c r="C239">
         <v>22</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>167</v>
+      </c>
+      <c r="E239">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -4169,8 +5608,14 @@
       <c r="C240">
         <v>23</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>203</v>
+      </c>
+      <c r="E240">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
@@ -4180,8 +5625,14 @@
       <c r="C241">
         <v>26</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>216</v>
+      </c>
+      <c r="E241">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
@@ -4191,8 +5642,14 @@
       <c r="C242">
         <v>26</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>245</v>
+      </c>
+      <c r="E242">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
@@ -4202,8 +5659,14 @@
       <c r="C243">
         <v>26</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>259</v>
+      </c>
+      <c r="E243">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>242</v>
       </c>
@@ -4213,8 +5676,14 @@
       <c r="C244">
         <v>26</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>246</v>
+      </c>
+      <c r="E244">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
@@ -4224,8 +5693,14 @@
       <c r="C245">
         <v>30</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>270</v>
+      </c>
+      <c r="E245">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
@@ -4235,8 +5710,14 @@
       <c r="C246">
         <v>31</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>283</v>
+      </c>
+      <c r="E246">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
@@ -4246,8 +5727,14 @@
       <c r="C247">
         <v>32</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>302</v>
+      </c>
+      <c r="E247">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
@@ -4257,8 +5744,14 @@
       <c r="C248">
         <v>43</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>331</v>
+      </c>
+      <c r="E248">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -4268,8 +5761,14 @@
       <c r="C249">
         <v>43</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>384</v>
+      </c>
+      <c r="E249">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -4279,8 +5778,14 @@
       <c r="C250">
         <v>43</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>384</v>
+      </c>
+      <c r="E250">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -4290,8 +5795,14 @@
       <c r="C251">
         <v>70</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>317</v>
+      </c>
+      <c r="E251">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -4301,8 +5812,14 @@
       <c r="C252">
         <v>69</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>348</v>
+      </c>
+      <c r="E252">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -4312,8 +5829,14 @@
       <c r="C253">
         <v>91</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>374</v>
+      </c>
+      <c r="E253">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
@@ -4323,8 +5846,14 @@
       <c r="C254">
         <v>107</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>416</v>
+      </c>
+      <c r="E254">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
@@ -4334,8 +5863,14 @@
       <c r="C255">
         <v>107</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>421</v>
+      </c>
+      <c r="E255">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
@@ -4345,8 +5880,14 @@
       <c r="C256">
         <v>107</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>465</v>
+      </c>
+      <c r="E256">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
@@ -4356,8 +5897,14 @@
       <c r="C257">
         <v>107</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257">
+        <v>518</v>
+      </c>
+      <c r="E257">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
@@ -4367,8 +5914,14 @@
       <c r="C258">
         <v>127</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>401</v>
+      </c>
+      <c r="E258">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
@@ -4378,8 +5931,14 @@
       <c r="C259">
         <v>129</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>415</v>
+      </c>
+      <c r="E259">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
@@ -4389,8 +5948,14 @@
       <c r="C260">
         <v>139</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>417</v>
+      </c>
+      <c r="E260">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
@@ -4400,8 +5965,14 @@
       <c r="C261">
         <v>151</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>448</v>
+      </c>
+      <c r="E261">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>260</v>
       </c>
@@ -4411,8 +5982,14 @@
       <c r="C262">
         <v>139</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262">
+        <v>531</v>
+      </c>
+      <c r="E262">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>261</v>
       </c>
@@ -4422,8 +5999,14 @@
       <c r="C263">
         <v>139</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>596</v>
+      </c>
+      <c r="E263">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
@@ -4433,8 +6016,14 @@
       <c r="C264">
         <v>139</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>682</v>
+      </c>
+      <c r="E264">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
@@ -4444,8 +6033,14 @@
       <c r="C265">
         <v>139</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>525</v>
+      </c>
+      <c r="E265">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
@@ -4455,8 +6050,14 @@
       <c r="C266">
         <v>156</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <v>511</v>
+      </c>
+      <c r="E266">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>265</v>
       </c>
@@ -4466,8 +6067,14 @@
       <c r="C267">
         <v>173</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267">
+        <v>573</v>
+      </c>
+      <c r="E267">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>266</v>
       </c>
@@ -4477,8 +6084,14 @@
       <c r="C268">
         <v>191</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>664</v>
+      </c>
+      <c r="E268">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
@@ -4488,8 +6101,14 @@
       <c r="C269">
         <v>205</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>578</v>
+      </c>
+      <c r="E269">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
@@ -4499,8 +6118,14 @@
       <c r="C270">
         <v>205</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270">
+        <v>696</v>
+      </c>
+      <c r="E270">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
@@ -4510,8 +6135,14 @@
       <c r="C271">
         <v>205</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>710</v>
+      </c>
+      <c r="E271">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
@@ -4521,8 +6152,14 @@
       <c r="C272">
         <v>205</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272">
+        <v>767</v>
+      </c>
+      <c r="E272">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
@@ -4532,8 +6169,14 @@
       <c r="C273">
         <v>211</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>589</v>
+      </c>
+      <c r="E273">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
@@ -4543,8 +6186,14 @@
       <c r="C274">
         <v>223</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>624</v>
+      </c>
+      <c r="E274">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
@@ -4554,8 +6203,14 @@
       <c r="C275">
         <v>228</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>666</v>
+      </c>
+      <c r="E275">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
@@ -4565,8 +6220,14 @@
       <c r="C276">
         <v>224</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>637</v>
+      </c>
+      <c r="E276">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
@@ -4576,8 +6237,14 @@
       <c r="C277">
         <v>224</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>709</v>
+      </c>
+      <c r="E277">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
@@ -4587,8 +6254,14 @@
       <c r="C278">
         <v>224</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>726</v>
+      </c>
+      <c r="E278">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
@@ -4598,8 +6271,14 @@
       <c r="C279">
         <v>227</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>517</v>
+      </c>
+      <c r="E279">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
@@ -4609,8 +6288,14 @@
       <c r="C280">
         <v>194</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>441</v>
+      </c>
+      <c r="E280">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
@@ -4620,8 +6305,14 @@
       <c r="C281">
         <v>211</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>427</v>
+      </c>
+      <c r="E281">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>280</v>
       </c>
@@ -4631,8 +6322,14 @@
       <c r="C282">
         <v>201</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>396</v>
+      </c>
+      <c r="E282">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>281</v>
       </c>
@@ -4642,8 +6339,14 @@
       <c r="C283">
         <v>192</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>394</v>
+      </c>
+      <c r="E283">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
@@ -4653,8 +6356,14 @@
       <c r="C284">
         <v>192</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284">
+        <v>437</v>
+      </c>
+      <c r="E284">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
@@ -4664,8 +6373,14 @@
       <c r="C285">
         <v>192</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285">
+        <v>448</v>
+      </c>
+      <c r="E285">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
@@ -4675,8 +6390,14 @@
       <c r="C286">
         <v>179</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>290</v>
+      </c>
+      <c r="E286">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
@@ -4685,6 +6406,12 @@
       </c>
       <c r="C287">
         <v>211</v>
+      </c>
+      <c r="D287">
+        <v>288</v>
+      </c>
+      <c r="E287">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
